--- a/data_processed/20250805/BTCUSDVOLSURFACE_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDVOLSURFACE_20250805.xlsx
@@ -18983,7 +18983,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19157,7 +19157,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19244,7 +19244,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46806,7 +46806,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46864,7 +46864,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250805/BTCUSDVOLSURFACE_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDVOLSURFACE_20250805.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18983,7 +18983,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19157,7 +19157,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19244,7 +19244,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46806,7 +46806,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46864,7 +46864,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -46922,7 +46922,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46951,7 +46951,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46980,7 +46980,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47009,7 +47009,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47038,7 +47038,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47067,7 +47067,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47096,7 +47096,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47125,7 +47125,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47154,7 +47154,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
